--- a/아카이브_A30(천년과정).xlsx
+++ b/아카이브_A30(천년과정).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="25875" windowHeight="15915" activeTab="3"/>
+    <workbookView xWindow="1695" yWindow="-120" windowWidth="25875" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Extensions " sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'수집기록물 목록'!$A$1:$T$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$U$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="571">
   <si>
     <t>Name</t>
   </si>
@@ -2780,23 +2780,632 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>등록구분</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업과정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-A300001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-A300002</t>
+  </si>
+  <si>
+    <t>M-A300003</t>
+  </si>
+  <si>
+    <t>M-A300004</t>
+  </si>
+  <si>
+    <t>M-A300005</t>
+  </si>
+  <si>
+    <t>M-A300006</t>
+  </si>
+  <si>
+    <t>M-A300007</t>
+  </si>
+  <si>
+    <t>M-A300008</t>
+  </si>
+  <si>
+    <t>M-A300009</t>
+  </si>
+  <si>
+    <t>M-A300010</t>
+  </si>
+  <si>
+    <t>M-A300011</t>
+  </si>
+  <si>
+    <t>M-A300012</t>
+  </si>
+  <si>
+    <t>M-A300013</t>
+  </si>
+  <si>
+    <t>M-A300014</t>
+  </si>
+  <si>
+    <t>M-A300015</t>
+  </si>
+  <si>
+    <t>M-A300016</t>
+  </si>
+  <si>
+    <t>M-A300017</t>
+  </si>
+  <si>
+    <t>M-A300018</t>
+  </si>
+  <si>
+    <t>M-A300019</t>
+  </si>
+  <si>
+    <t>M-A300020</t>
+  </si>
+  <si>
+    <t>M-A300021</t>
+  </si>
+  <si>
+    <t>M-A300022</t>
+  </si>
+  <si>
+    <t>M-A300023</t>
+  </si>
+  <si>
+    <t>M-A300024</t>
+  </si>
+  <si>
+    <t>M-A300025</t>
+  </si>
+  <si>
+    <t>M-A300026</t>
+  </si>
+  <si>
+    <t>M-A300027</t>
+  </si>
+  <si>
+    <t>M-A300028</t>
+  </si>
+  <si>
+    <t>M-A300029</t>
+  </si>
+  <si>
+    <t>M-A300030</t>
+  </si>
+  <si>
+    <t>M-A300031</t>
+  </si>
+  <si>
+    <t>M-A300032</t>
+  </si>
+  <si>
+    <t>M-A300033</t>
+  </si>
+  <si>
+    <t>M-A300034</t>
+  </si>
+  <si>
+    <t>M-A300035</t>
+  </si>
+  <si>
+    <t>M-A300036</t>
+  </si>
+  <si>
+    <t>M-A300037</t>
+  </si>
+  <si>
+    <t>M-A300038</t>
+  </si>
+  <si>
+    <t>M-A300039</t>
+  </si>
+  <si>
+    <t>M-A300040</t>
+  </si>
+  <si>
+    <t>M-A300041</t>
+  </si>
+  <si>
+    <t>M-A300042</t>
+  </si>
+  <si>
+    <t>M-A300043</t>
+  </si>
+  <si>
+    <t>M-A300044</t>
+  </si>
+  <si>
+    <t>M-A300045</t>
+  </si>
+  <si>
+    <t>M-A300046</t>
+  </si>
+  <si>
+    <t>M-A300047</t>
+  </si>
+  <si>
+    <t>M-A300048</t>
+  </si>
+  <si>
+    <t>영상류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-A300049</t>
+  </si>
+  <si>
+    <t>M-A300050</t>
+  </si>
+  <si>
+    <t>image/jpeg</t>
+  </si>
+  <si>
+    <t>123 kB</t>
+  </si>
+  <si>
+    <t>458x596</t>
+  </si>
+  <si>
+    <t>86 kB</t>
+  </si>
+  <si>
+    <t>720x960</t>
+  </si>
+  <si>
+    <t>image/png</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>765 kB</t>
+  </si>
+  <si>
+    <t>992x1403</t>
+  </si>
+  <si>
+    <t>1192 kB</t>
+  </si>
+  <si>
+    <t>1272 kB</t>
+  </si>
+  <si>
+    <t>3.9 MB</t>
+  </si>
+  <si>
+    <t>4032x3024</t>
+  </si>
+  <si>
+    <t>3.7 MB</t>
+  </si>
+  <si>
+    <t>4.0 MB</t>
+  </si>
+  <si>
+    <t>3.4 MB</t>
+  </si>
+  <si>
+    <t>2.7 MB</t>
+  </si>
+  <si>
+    <t>video/mp4</t>
+  </si>
+  <si>
+    <t>111 MB</t>
+  </si>
+  <si>
+    <t>1920x1080</t>
+  </si>
+  <si>
+    <t>182 MB</t>
+  </si>
+  <si>
+    <t>178 MB</t>
+  </si>
+  <si>
+    <t>116 MB</t>
+  </si>
+  <si>
+    <t>566 MB</t>
+  </si>
+  <si>
+    <t>563 MB</t>
+  </si>
+  <si>
+    <t>435 MB</t>
+  </si>
+  <si>
+    <t>633 MB</t>
+  </si>
+  <si>
+    <t>466 MB</t>
+  </si>
+  <si>
+    <t>507 MB</t>
+  </si>
+  <si>
+    <t>424 MB</t>
+  </si>
+  <si>
+    <t>456 MB</t>
+  </si>
+  <si>
+    <t>163 MB</t>
+  </si>
+  <si>
+    <t>422 MB</t>
+  </si>
+  <si>
+    <t>406 MB</t>
+  </si>
+  <si>
+    <t>506 MB</t>
+  </si>
+  <si>
+    <t>video/quicktime</t>
+  </si>
+  <si>
+    <t>1043 MB</t>
+  </si>
+  <si>
+    <t>308 MB</t>
+  </si>
+  <si>
+    <t>321 MB</t>
+  </si>
+  <si>
+    <t>535 MB</t>
+  </si>
+  <si>
+    <t>562 MB</t>
+  </si>
+  <si>
+    <t>451 MB</t>
+  </si>
+  <si>
+    <t>53 MB</t>
+  </si>
+  <si>
+    <t>319 MB</t>
+  </si>
+  <si>
+    <t>474 MB</t>
+  </si>
+  <si>
+    <t>661 MB</t>
+  </si>
+  <si>
+    <t>427 MB</t>
+  </si>
+  <si>
+    <t>441 MB</t>
+  </si>
+  <si>
+    <t>458 MB</t>
+  </si>
+  <si>
+    <t>471 MB</t>
+  </si>
+  <si>
+    <t>142 MB</t>
+  </si>
+  <si>
+    <t>640x360</t>
+  </si>
+  <si>
+    <t>647 MB</t>
+  </si>
+  <si>
+    <t>239 MB</t>
+  </si>
+  <si>
+    <t>399 MB</t>
+  </si>
+  <si>
+    <t>910 kB</t>
+  </si>
+  <si>
+    <t>2448x3264</t>
+  </si>
+  <si>
+    <t>2.3 MB</t>
+  </si>
+  <si>
+    <t>3264x2448</t>
+  </si>
+  <si>
+    <t>시청각기록물 등록번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산(수집) 등록번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIME 유형</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>File 유형</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>File 사이즈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image 사이즈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생시간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>생산자</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>생산일</t>
+    <t>제공일</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>시청각기록물 등록번호</t>
+    <t>제공자</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>등록구분</t>
+    <t>수집일</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>사업과정</t>
+    <t>수집자</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제어(사업명)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제어(사업명 약어)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제어(단위과제)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제어(기타)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억하는용기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업 과정 아카이브</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사 수집 및 기록 가이드라인 001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억하는용기(김진주)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억하는용기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업 과정 아카이브</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>조사 수집 및 기록 가이드라인 002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>그림류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>조사 수집 및 기록 가이드라인 003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>기록자 워크샵 1차 기록사진 001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기록자 워크샵 1차 기록사진 002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>기록자 워크샵 1차 기록사진 003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기록자 워크샵 1차 기록사진 004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>기록자 워크샵 1차 기록사진 005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>업무현장 문화사업팀사무실</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억하는용기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업 과정 아카이브</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록영상</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록영상 업무현장 문화사업팀회의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록영상 업무현장 문화사업팀사무실</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억하는용기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업 과정 아카이브</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록영상</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상류</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2804,148 +3413,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>M-A300002</t>
-  </si>
-  <si>
-    <t>M-A300003</t>
-  </si>
-  <si>
-    <t>M-A300004</t>
-  </si>
-  <si>
-    <t>M-A300005</t>
-  </si>
-  <si>
-    <t>M-A300006</t>
-  </si>
-  <si>
-    <t>M-A300007</t>
-  </si>
-  <si>
-    <t>M-A300008</t>
-  </si>
-  <si>
-    <t>M-A300009</t>
-  </si>
-  <si>
-    <t>M-A300010</t>
-  </si>
-  <si>
-    <t>M-A300011</t>
-  </si>
-  <si>
-    <t>M-A300012</t>
-  </si>
-  <si>
-    <t>M-A300013</t>
-  </si>
-  <si>
-    <t>M-A300014</t>
-  </si>
-  <si>
-    <t>M-A300015</t>
-  </si>
-  <si>
-    <t>M-A300016</t>
-  </si>
-  <si>
-    <t>M-A300017</t>
-  </si>
-  <si>
-    <t>M-A300018</t>
-  </si>
-  <si>
-    <t>M-A300019</t>
-  </si>
-  <si>
-    <t>M-A300020</t>
-  </si>
-  <si>
-    <t>M-A300021</t>
-  </si>
-  <si>
-    <t>M-A300022</t>
-  </si>
-  <si>
-    <t>M-A300023</t>
-  </si>
-  <si>
-    <t>M-A300024</t>
-  </si>
-  <si>
-    <t>M-A300025</t>
-  </si>
-  <si>
-    <t>M-A300026</t>
-  </si>
-  <si>
-    <t>M-A300027</t>
-  </si>
-  <si>
-    <t>M-A300028</t>
-  </si>
-  <si>
-    <t>M-A300029</t>
-  </si>
-  <si>
-    <t>M-A300030</t>
-  </si>
-  <si>
-    <t>M-A300031</t>
-  </si>
-  <si>
-    <t>M-A300032</t>
-  </si>
-  <si>
-    <t>M-A300033</t>
-  </si>
-  <si>
-    <t>M-A300034</t>
-  </si>
-  <si>
-    <t>M-A300035</t>
-  </si>
-  <si>
-    <t>M-A300036</t>
-  </si>
-  <si>
-    <t>M-A300037</t>
-  </si>
-  <si>
-    <t>M-A300038</t>
-  </si>
-  <si>
-    <t>M-A300039</t>
-  </si>
-  <si>
-    <t>M-A300040</t>
-  </si>
-  <si>
-    <t>M-A300041</t>
-  </si>
-  <si>
-    <t>M-A300042</t>
-  </si>
-  <si>
-    <t>M-A300043</t>
-  </si>
-  <si>
-    <t>M-A300044</t>
-  </si>
-  <si>
-    <t>M-A300045</t>
-  </si>
-  <si>
-    <t>M-A300046</t>
-  </si>
-  <si>
-    <t>M-A300047</t>
-  </si>
-  <si>
-    <t>M-A300048</t>
-  </si>
-  <si>
-    <t>유형</t>
+    <t>도민창의대회발췌(도요청자료)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억하는용기(김진주)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>도민창의대회</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2953,7 +3429,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>그림류</t>
+    <t>수집실물자료 기록사진 001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2961,54 +3437,20 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>M-A300049</t>
-  </si>
-  <si>
-    <t>M-A300050</t>
-  </si>
-  <si>
-    <t>MIME 유형</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>File 유형</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>File 사이즈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image 사이즈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>재생시간</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>수집일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>수집자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>기억하는용기</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상민</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <r>
+      <t>수집실물자료 기록사진 002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -3169,7 +3611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3243,6 +3685,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3908,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3938,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>288</v>
@@ -3998,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C2" s="13">
         <v>43033</v>
@@ -4045,7 +4493,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C3" s="13">
         <v>43033</v>
@@ -4088,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C4" s="13">
         <v>43103</v>
@@ -4113,10 +4561,10 @@
         <v>381</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>386</v>
@@ -4139,7 +4587,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C5" s="13">
         <v>42970</v>
@@ -4180,7 +4628,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C6" s="13">
         <v>42971</v>
@@ -4221,7 +4669,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C7" s="13">
         <v>42971</v>
@@ -4262,7 +4710,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C8" s="13">
         <v>42895</v>
@@ -4305,7 +4753,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C9" s="13">
         <v>42960</v>
@@ -4328,10 +4776,10 @@
         <v>381</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O9" s="26" t="s">
         <v>388</v>
@@ -4352,7 +4800,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C10" s="13">
         <v>42960</v>
@@ -4393,7 +4841,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C11" s="13">
         <v>42960</v>
@@ -4416,10 +4864,10 @@
         <v>381</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O11" s="26" t="s">
         <v>389</v>
@@ -4440,7 +4888,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C12" s="13">
         <v>42972</v>
@@ -4483,7 +4931,7 @@
         <v>112</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C13" s="13">
         <v>42972</v>
@@ -4528,7 +4976,7 @@
         <v>113</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C14" s="13">
         <v>42975</v>
@@ -4573,7 +5021,7 @@
         <v>114</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C15" s="13">
         <v>42975</v>
@@ -4618,7 +5066,7 @@
         <v>115</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C16" s="13">
         <v>42975</v>
@@ -4663,7 +5111,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C17" s="13">
         <v>43004</v>
@@ -4708,7 +5156,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C18" s="13">
         <v>43004</v>
@@ -4753,7 +5201,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C19" s="13">
         <v>43004</v>
@@ -4798,7 +5246,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C20" s="13">
         <v>43024</v>
@@ -4843,7 +5291,7 @@
         <v>121</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C21" s="13">
         <v>43089</v>
@@ -4886,7 +5334,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C22" s="13">
         <v>43007</v>
@@ -4929,7 +5377,7 @@
         <v>123</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C23" s="13">
         <v>43019</v>
@@ -4974,7 +5422,7 @@
         <v>124</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C24" s="13">
         <v>43251</v>
@@ -5019,7 +5467,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C25" s="13">
         <v>42961</v>
@@ -5044,10 +5492,10 @@
         <v>381</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>389</v>
@@ -5068,7 +5516,7 @@
         <v>126</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C26" s="13">
         <v>42961</v>
@@ -5093,10 +5541,10 @@
         <v>381</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>389</v>
@@ -5117,7 +5565,7 @@
         <v>127</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C27" s="13">
         <v>42961</v>
@@ -5142,10 +5590,10 @@
         <v>381</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O27" s="26" t="s">
         <v>389</v>
@@ -5166,7 +5614,7 @@
         <v>128</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C28" s="13">
         <v>42990</v>
@@ -5209,7 +5657,7 @@
         <v>129</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C29" s="13">
         <v>42993</v>
@@ -5234,10 +5682,10 @@
         <v>381</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>389</v>
@@ -5258,7 +5706,7 @@
         <v>130</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C30" s="13">
         <v>42993</v>
@@ -5283,10 +5731,10 @@
         <v>381</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O30" s="26" t="s">
         <v>389</v>
@@ -5307,7 +5755,7 @@
         <v>131</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C31" s="13">
         <v>42993</v>
@@ -5332,10 +5780,10 @@
         <v>381</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>389</v>
@@ -5356,7 +5804,7 @@
         <v>132</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C32" s="13">
         <v>42993</v>
@@ -5381,10 +5829,10 @@
         <v>381</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O32" s="26" t="s">
         <v>389</v>
@@ -5405,7 +5853,7 @@
         <v>133</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C33" s="13">
         <v>42993</v>
@@ -5430,10 +5878,10 @@
         <v>381</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>389</v>
@@ -5454,7 +5902,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C34" s="13">
         <v>42993</v>
@@ -5495,7 +5943,7 @@
         <v>135</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C35" s="13">
         <v>43053</v>
@@ -5538,7 +5986,7 @@
         <v>136</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C36" s="13">
         <v>43004</v>
@@ -5563,10 +6011,10 @@
         <v>381</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O36" s="26" t="s">
         <v>391</v>
@@ -5589,7 +6037,7 @@
         <v>137</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C37" s="13">
         <v>43019</v>
@@ -5614,10 +6062,10 @@
         <v>381</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O37" s="26" t="s">
         <v>391</v>
@@ -5640,7 +6088,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C38" s="13">
         <v>43020</v>
@@ -5665,10 +6113,10 @@
         <v>381</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O38" s="26" t="s">
         <v>391</v>
@@ -5691,7 +6139,7 @@
         <v>139</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C39" s="13">
         <v>43035</v>
@@ -5716,10 +6164,10 @@
         <v>381</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>391</v>
@@ -5742,7 +6190,7 @@
         <v>140</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C40" s="13">
         <v>43035</v>
@@ -5767,10 +6215,10 @@
         <v>381</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O40" s="26" t="s">
         <v>391</v>
@@ -5793,7 +6241,7 @@
         <v>141</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C41" s="13">
         <v>43035</v>
@@ -5818,10 +6266,10 @@
         <v>381</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O41" s="26" t="s">
         <v>391</v>
@@ -5844,7 +6292,7 @@
         <v>142</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C42" s="13">
         <v>43035</v>
@@ -5869,10 +6317,10 @@
         <v>381</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O42" s="26" t="s">
         <v>391</v>
@@ -5895,7 +6343,7 @@
         <v>143</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C43" s="13">
         <v>43035</v>
@@ -5920,10 +6368,10 @@
         <v>381</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O43" s="26" t="s">
         <v>391</v>
@@ -5946,7 +6394,7 @@
         <v>144</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C44" s="13">
         <v>43040</v>
@@ -5971,10 +6419,10 @@
         <v>381</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O44" s="26" t="s">
         <v>391</v>
@@ -5997,7 +6445,7 @@
         <v>145</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C45" s="13">
         <v>43040</v>
@@ -6022,10 +6470,10 @@
         <v>381</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O45" s="26" t="s">
         <v>391</v>
@@ -6048,7 +6496,7 @@
         <v>146</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C46" s="13">
         <v>43040</v>
@@ -6073,10 +6521,10 @@
         <v>381</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O46" s="26" t="s">
         <v>391</v>
@@ -6099,7 +6547,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C47" s="13">
         <v>43040</v>
@@ -6124,10 +6572,10 @@
         <v>381</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O47" s="26" t="s">
         <v>391</v>
@@ -6150,7 +6598,7 @@
         <v>148</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C48" s="13">
         <v>43043</v>
@@ -6175,10 +6623,10 @@
         <v>381</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O48" s="26" t="s">
         <v>391</v>
@@ -6201,7 +6649,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C49" s="13">
         <v>43045</v>
@@ -6226,10 +6674,10 @@
         <v>381</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O49" s="26" t="s">
         <v>391</v>
@@ -6252,7 +6700,7 @@
         <v>150</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C50" s="13">
         <v>43053</v>
@@ -6277,10 +6725,10 @@
         <v>381</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O50" s="26" t="s">
         <v>391</v>
@@ -6303,7 +6751,7 @@
         <v>151</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C51" s="13">
         <v>43053</v>
@@ -6328,10 +6776,10 @@
         <v>381</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O51" s="26" t="s">
         <v>391</v>
@@ -6354,7 +6802,7 @@
         <v>152</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C52" s="13">
         <v>43057</v>
@@ -6379,10 +6827,10 @@
         <v>381</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O52" s="26" t="s">
         <v>391</v>
@@ -6405,7 +6853,7 @@
         <v>153</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C53" s="13">
         <v>43061</v>
@@ -6430,10 +6878,10 @@
         <v>381</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O53" s="26" t="s">
         <v>386</v>
@@ -6456,7 +6904,7 @@
         <v>154</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C54" s="13">
         <v>43061</v>
@@ -6481,10 +6929,10 @@
         <v>381</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O54" s="26" t="s">
         <v>386</v>
@@ -6507,7 +6955,7 @@
         <v>155</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C55" s="13">
         <v>43061</v>
@@ -6532,10 +6980,10 @@
         <v>381</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O55" s="26" t="s">
         <v>386</v>
@@ -6558,7 +7006,7 @@
         <v>156</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C56" s="13">
         <v>43061</v>
@@ -6583,10 +7031,10 @@
         <v>381</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O56" s="26" t="s">
         <v>391</v>
@@ -6609,7 +7057,7 @@
         <v>157</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C57" s="13">
         <v>43061</v>
@@ -6634,10 +7082,10 @@
         <v>381</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O57" s="26" t="s">
         <v>391</v>
@@ -6660,7 +7108,7 @@
         <v>158</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C58" s="13">
         <v>43067</v>
@@ -6685,10 +7133,10 @@
         <v>381</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O58" s="26" t="s">
         <v>391</v>
@@ -6711,7 +7159,7 @@
         <v>159</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C59" s="13">
         <v>43096</v>
@@ -6736,10 +7184,10 @@
         <v>381</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O59" s="26" t="s">
         <v>391</v>
@@ -6762,7 +7210,7 @@
         <v>160</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C60" s="13">
         <v>43096</v>
@@ -6787,10 +7235,10 @@
         <v>381</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O60" s="26" t="s">
         <v>391</v>
@@ -6813,7 +7261,7 @@
         <v>161</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C61" s="13">
         <v>43096</v>
@@ -6838,10 +7286,10 @@
         <v>381</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O61" s="26" t="s">
         <v>391</v>
@@ -6864,7 +7312,7 @@
         <v>162</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C62" s="13">
         <v>43097</v>
@@ -6889,10 +7337,10 @@
         <v>381</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O62" s="26" t="s">
         <v>391</v>
@@ -6915,7 +7363,7 @@
         <v>163</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C63" s="13">
         <v>43100</v>
@@ -6940,10 +7388,10 @@
         <v>381</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O63" s="26" t="s">
         <v>391</v>
@@ -6966,7 +7414,7 @@
         <v>164</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C64" s="13">
         <v>43100</v>
@@ -6991,10 +7439,10 @@
         <v>381</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O64" s="26" t="s">
         <v>391</v>
@@ -7017,7 +7465,7 @@
         <v>165</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C65" s="13">
         <v>43100</v>
@@ -7042,10 +7490,10 @@
         <v>381</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O65" s="26" t="s">
         <v>391</v>
@@ -7068,7 +7516,7 @@
         <v>166</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C66" s="13">
         <v>43100</v>
@@ -7093,10 +7541,10 @@
         <v>381</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O66" s="26" t="s">
         <v>391</v>
@@ -7119,7 +7567,7 @@
         <v>167</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C67" s="13">
         <v>43100</v>
@@ -7144,10 +7592,10 @@
         <v>381</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O67" s="26" t="s">
         <v>391</v>
@@ -7170,7 +7618,7 @@
         <v>168</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C68" s="13">
         <v>43100</v>
@@ -7195,10 +7643,10 @@
         <v>381</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O68" s="26" t="s">
         <v>391</v>
@@ -7221,7 +7669,7 @@
         <v>169</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C69" s="13">
         <v>43100</v>
@@ -7246,10 +7694,10 @@
         <v>381</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O69" s="26" t="s">
         <v>391</v>
@@ -7272,7 +7720,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C70" s="13">
         <v>43111</v>
@@ -7297,10 +7745,10 @@
         <v>381</v>
       </c>
       <c r="M70" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="N70" s="13" t="s">
         <v>447</v>
-      </c>
-      <c r="N70" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="O70" s="26" t="s">
         <v>391</v>
@@ -7323,7 +7771,7 @@
         <v>171</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C71" s="13">
         <v>43132</v>
@@ -7348,10 +7796,10 @@
         <v>381</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O71" s="26" t="s">
         <v>391</v>
@@ -7374,7 +7822,7 @@
         <v>172</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C72" s="13">
         <v>43133</v>
@@ -7399,10 +7847,10 @@
         <v>381</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O72" s="26" t="s">
         <v>391</v>
@@ -7425,7 +7873,7 @@
         <v>173</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C73" s="13">
         <v>43199</v>
@@ -7471,7 +7919,7 @@
         <v>174</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C74" s="13">
         <v>43292</v>
@@ -7496,10 +7944,10 @@
         <v>381</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O74" s="26" t="s">
         <v>388</v>
@@ -7520,7 +7968,7 @@
         <v>175</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C75" s="13">
         <v>43292</v>
@@ -7545,10 +7993,10 @@
         <v>381</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O75" s="26" t="s">
         <v>388</v>
@@ -7569,7 +8017,7 @@
         <v>176</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C76" s="13">
         <v>43354</v>
@@ -7614,7 +8062,7 @@
         <v>177</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C77" s="13">
         <v>43388</v>
@@ -7841,8 +8289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7850,10 +8298,11 @@
     <col min="1" max="1" width="88" style="12" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" style="17" customWidth="1"/>
-    <col min="5" max="10" width="26.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="12" customWidth="1"/>
+    <col min="6" max="10" width="26.42578125" style="14" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" style="12" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" style="12" customWidth="1"/>
     <col min="14" max="16" width="20.28515625" style="14" customWidth="1"/>
     <col min="17" max="17" width="30.42578125" style="29" customWidth="1"/>
@@ -7867,61 +8316,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>293</v>
+        <v>512</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>513</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>397</v>
+        <v>520</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>521</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>291</v>
+        <v>526</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>383</v>
+        <v>527</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>290</v>
+        <v>529</v>
       </c>
       <c r="U1" s="25" t="s">
         <v>2</v>
@@ -7932,42 +8381,52 @@
         <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>402</v>
+        <v>563</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>285</v>
+      <c r="D2" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="J2" s="34">
+        <v>4.0509259259259257E-3</v>
+      </c>
       <c r="K2" s="13">
         <v>43103</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>284</v>
+      <c r="L2" s="14" t="s">
+        <v>565</v>
       </c>
       <c r="M2" s="32">
         <v>43159</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>465</v>
+        <v>558</v>
       </c>
       <c r="O2" s="32">
         <v>43389</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>195</v>
@@ -7976,7 +8435,7 @@
         <v>188</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>380</v>
+        <v>566</v>
       </c>
       <c r="U2" s="28" t="s">
         <v>9</v>
@@ -7987,42 +8446,49 @@
         <v>107</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>203</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="G3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>454</v>
+      </c>
       <c r="K3" s="13">
         <v>42960</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>225</v>
       </c>
       <c r="M3" s="32">
         <v>43159</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="O3" s="32">
         <v>43389</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>388</v>
+        <v>533</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>195</v>
@@ -8040,42 +8506,49 @@
         <v>109</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>205</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="G4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>456</v>
+      </c>
       <c r="K4" s="13">
         <v>42960</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="14" t="s">
         <v>225</v>
       </c>
       <c r="M4" s="32">
         <v>43159</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="O4" s="32">
         <v>43389</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>195</v>
@@ -8093,42 +8566,49 @@
         <v>125</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>236</v>
+      <c r="D5" s="14" t="s">
+        <v>535</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+        <v>534</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>460</v>
+      </c>
       <c r="K5" s="13">
         <v>42961</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>284</v>
+      <c r="L5" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="M5" s="32">
         <v>43159</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O5" s="32">
         <v>43389</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>195</v>
@@ -8146,42 +8626,49 @@
         <v>126</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>237</v>
+      <c r="D6" s="14" t="s">
+        <v>540</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+        <v>541</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>460</v>
+      </c>
       <c r="K6" s="13">
         <v>42961</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>284</v>
+      <c r="L6" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="M6" s="32">
         <v>43159</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O6" s="32">
         <v>43389</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>195</v>
@@ -8199,42 +8686,49 @@
         <v>127</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>238</v>
+      <c r="D7" s="14" t="s">
+        <v>542</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+        <v>541</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>460</v>
+      </c>
       <c r="K7" s="13">
         <v>42961</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>284</v>
+      <c r="L7" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="M7" s="32">
         <v>43159</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O7" s="32">
         <v>43389</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>195</v>
@@ -8252,42 +8746,49 @@
         <v>129</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>239</v>
+      <c r="D8" s="14" t="s">
+        <v>543</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+        <v>544</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="K8" s="13">
         <v>42993</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M8" s="32">
         <v>43159</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O8" s="32">
         <v>43389</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>195</v>
@@ -8305,42 +8806,49 @@
         <v>130</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>240</v>
+      <c r="D9" s="14" t="s">
+        <v>545</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+        <v>544</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="K9" s="13">
         <v>42993</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M9" s="32">
         <v>43159</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O9" s="32">
         <v>43389</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>195</v>
@@ -8358,42 +8866,49 @@
         <v>131</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>249</v>
+      <c r="D10" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+        <v>544</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="K10" s="13">
         <v>42993</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M10" s="32">
         <v>43159</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O10" s="32">
         <v>43389</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>195</v>
@@ -8411,42 +8926,49 @@
         <v>132</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>241</v>
+      <c r="D11" s="14" t="s">
+        <v>547</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+        <v>544</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="K11" s="13">
         <v>42993</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M11" s="32">
         <v>43159</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O11" s="32">
         <v>43389</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>195</v>
@@ -8464,42 +8986,49 @@
         <v>133</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>242</v>
+      <c r="D12" s="14" t="s">
+        <v>548</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+        <v>544</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="K12" s="13">
         <v>42993</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M12" s="32">
         <v>43159</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O12" s="32">
         <v>43389</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>389</v>
+        <v>539</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>195</v>
@@ -8517,42 +9046,52 @@
         <v>136</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>247</v>
+      <c r="D13" s="33" t="s">
+        <v>549</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+        <v>550</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J13" s="34">
+        <v>5.9027777777777778E-4</v>
+      </c>
       <c r="K13" s="13">
         <v>43004</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M13" s="32">
         <v>43159</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O13" s="32">
         <v>43389</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>195</v>
@@ -8561,7 +9100,7 @@
         <v>194</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U13" s="28" t="s">
         <v>45</v>
@@ -8572,42 +9111,52 @@
         <v>137</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>248</v>
+      <c r="D14" s="33" t="s">
+        <v>555</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J14" s="34">
+        <v>9.1435185185185185E-4</v>
+      </c>
       <c r="K14" s="13">
         <v>43019</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M14" s="32">
         <v>43159</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O14" s="32">
         <v>43389</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R14" s="29" t="s">
         <v>195</v>
@@ -8616,7 +9165,7 @@
         <v>194</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U14" s="28" t="s">
         <v>46</v>
@@ -8627,42 +9176,52 @@
         <v>138</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="33" t="s">
         <v>245</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J15" s="34">
+        <v>9.0277777777777784E-4</v>
+      </c>
       <c r="K15" s="13">
         <v>43020</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M15" s="32">
         <v>43159</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O15" s="32">
         <v>43389</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>195</v>
@@ -8671,7 +9230,7 @@
         <v>194</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U15" s="28" t="s">
         <v>47</v>
@@ -8682,42 +9241,52 @@
         <v>139</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>246</v>
+      <c r="D16" s="33" t="s">
+        <v>557</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J16" s="34">
+        <v>6.018518518518519E-4</v>
+      </c>
       <c r="K16" s="13">
         <v>43035</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M16" s="32">
         <v>43159</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O16" s="32">
         <v>43389</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R16" s="29" t="s">
         <v>195</v>
@@ -8726,7 +9295,7 @@
         <v>194</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U16" s="28" t="s">
         <v>48</v>
@@ -8737,42 +9306,52 @@
         <v>140</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="33" t="s">
         <v>251</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J17" s="34">
+        <v>2.7546296296296294E-3</v>
+      </c>
       <c r="K17" s="13">
         <v>43035</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M17" s="32">
         <v>43159</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O17" s="32">
         <v>43389</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>195</v>
@@ -8781,7 +9360,7 @@
         <v>194</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U17" s="28" t="s">
         <v>49</v>
@@ -8792,42 +9371,52 @@
         <v>141</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="33" t="s">
         <v>252</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J18" s="34">
+        <v>2.7546296296296294E-3</v>
+      </c>
       <c r="K18" s="13">
         <v>43035</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M18" s="32">
         <v>43159</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O18" s="32">
         <v>43389</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R18" s="29" t="s">
         <v>195</v>
@@ -8836,7 +9425,7 @@
         <v>194</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U18" s="28" t="s">
         <v>50</v>
@@ -8847,42 +9436,52 @@
         <v>142</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="33" t="s">
         <v>253</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J19" s="34">
+        <v>2.1412037037037038E-3</v>
+      </c>
       <c r="K19" s="13">
         <v>43035</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M19" s="32">
         <v>43159</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O19" s="32">
         <v>43389</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>195</v>
@@ -8891,7 +9490,7 @@
         <v>194</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U19" s="28" t="s">
         <v>51</v>
@@ -8902,42 +9501,52 @@
         <v>143</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="33" t="s">
         <v>254</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J20" s="34">
+        <v>3.0902777777777782E-3</v>
+      </c>
       <c r="K20" s="13">
         <v>43035</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M20" s="32">
         <v>43159</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O20" s="32">
         <v>43389</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>195</v>
@@ -8946,7 +9555,7 @@
         <v>194</v>
       </c>
       <c r="T20" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U20" s="28" t="s">
         <v>52</v>
@@ -8957,42 +9566,52 @@
         <v>144</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="33" t="s">
         <v>255</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J21" s="34">
+        <v>2.3148148148148151E-3</v>
+      </c>
       <c r="K21" s="13">
         <v>43040</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M21" s="32">
         <v>43159</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O21" s="32">
         <v>43389</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>195</v>
@@ -9001,7 +9620,7 @@
         <v>194</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U21" s="28" t="s">
         <v>53</v>
@@ -9012,42 +9631,52 @@
         <v>145</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="33" t="s">
         <v>256</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J22" s="34">
+        <v>2.4768518518518516E-3</v>
+      </c>
       <c r="K22" s="13">
         <v>43040</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M22" s="32">
         <v>43159</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O22" s="32">
         <v>43389</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>195</v>
@@ -9056,7 +9685,7 @@
         <v>194</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U22" s="28" t="s">
         <v>54</v>
@@ -9067,42 +9696,52 @@
         <v>146</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="33" t="s">
         <v>257</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J23" s="34">
+        <v>2.0833333333333333E-3</v>
+      </c>
       <c r="K23" s="13">
         <v>43040</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M23" s="32">
         <v>43159</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O23" s="32">
         <v>43389</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>195</v>
@@ -9111,7 +9750,7 @@
         <v>194</v>
       </c>
       <c r="T23" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U23" s="28" t="s">
         <v>55</v>
@@ -9122,42 +9761,52 @@
         <v>147</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="33" t="s">
         <v>258</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J24" s="34">
+        <v>2.2337962962962967E-3</v>
+      </c>
       <c r="K24" s="13">
         <v>43040</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M24" s="32">
         <v>43159</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O24" s="32">
         <v>43389</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>195</v>
@@ -9166,7 +9815,7 @@
         <v>194</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U24" s="28" t="s">
         <v>56</v>
@@ -9177,42 +9826,52 @@
         <v>148</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="33" t="s">
         <v>259</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J25" s="34">
+        <v>2.2800925925925927E-3</v>
+      </c>
       <c r="K25" s="13">
         <v>43043</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M25" s="32">
         <v>43159</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O25" s="32">
         <v>43389</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>195</v>
@@ -9221,7 +9880,7 @@
         <v>194</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U25" s="28" t="s">
         <v>57</v>
@@ -9232,42 +9891,52 @@
         <v>149</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="33" t="s">
         <v>260</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J26" s="34">
+        <v>8.6805555555555551E-4</v>
+      </c>
       <c r="K26" s="13">
         <v>43045</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M26" s="32">
         <v>43159</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O26" s="32">
         <v>43389</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>195</v>
@@ -9276,7 +9945,7 @@
         <v>194</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U26" s="28" t="s">
         <v>58</v>
@@ -9287,42 +9956,52 @@
         <v>150</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="33" t="s">
         <v>261</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J27" s="34">
+        <v>2.0717592592592593E-3</v>
+      </c>
       <c r="K27" s="13">
         <v>43053</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M27" s="32">
         <v>43159</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O27" s="32">
         <v>43389</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>195</v>
@@ -9331,7 +10010,7 @@
         <v>194</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U27" s="28" t="s">
         <v>59</v>
@@ -9342,42 +10021,52 @@
         <v>151</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="33" t="s">
         <v>262</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J28" s="34">
+        <v>2.0833333333333333E-3</v>
+      </c>
       <c r="K28" s="13">
         <v>43053</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M28" s="32">
         <v>43159</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O28" s="32">
         <v>43389</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R28" s="29" t="s">
         <v>195</v>
@@ -9386,7 +10075,7 @@
         <v>194</v>
       </c>
       <c r="T28" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U28" s="28" t="s">
         <v>60</v>
@@ -9397,42 +10086,52 @@
         <v>152</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="33" t="s">
         <v>263</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J29" s="34">
+        <v>2.6041666666666665E-3</v>
+      </c>
       <c r="K29" s="13">
         <v>43057</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M29" s="32">
         <v>43159</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O29" s="32">
         <v>43389</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>195</v>
@@ -9441,7 +10140,7 @@
         <v>194</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U29" s="28" t="s">
         <v>61</v>
@@ -9452,42 +10151,52 @@
         <v>153</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="33" t="s">
         <v>264</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J30" s="34">
+        <v>6.9444444444444447E-4</v>
+      </c>
       <c r="K30" s="13">
         <v>43061</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M30" s="32">
         <v>43159</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>465</v>
+        <v>558</v>
       </c>
       <c r="O30" s="32">
         <v>43389</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="Q30" s="26" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="R30" s="29" t="s">
         <v>195</v>
@@ -9496,7 +10205,7 @@
         <v>194</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>393</v>
+        <v>561</v>
       </c>
       <c r="U30" s="28" t="s">
         <v>62</v>
@@ -9507,42 +10216,52 @@
         <v>154</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="33" t="s">
         <v>265</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+        <v>562</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J31" s="34">
+        <v>1.9675925925925928E-3</v>
+      </c>
       <c r="K31" s="13">
         <v>43061</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M31" s="32">
         <v>43159</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>465</v>
+        <v>558</v>
       </c>
       <c r="O31" s="32">
         <v>43389</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="Q31" s="26" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="R31" s="29" t="s">
         <v>195</v>
@@ -9551,7 +10270,7 @@
         <v>194</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>393</v>
+        <v>561</v>
       </c>
       <c r="U31" s="28" t="s">
         <v>63</v>
@@ -9562,42 +10281,52 @@
         <v>155</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="33" t="s">
         <v>266</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+        <v>562</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J32" s="34">
+        <v>2.0486111111111113E-3</v>
+      </c>
       <c r="K32" s="13">
         <v>43061</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M32" s="32">
         <v>43159</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>465</v>
+        <v>558</v>
       </c>
       <c r="O32" s="32">
         <v>43389</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="R32" s="29" t="s">
         <v>195</v>
@@ -9606,7 +10335,7 @@
         <v>194</v>
       </c>
       <c r="T32" s="27" t="s">
-        <v>393</v>
+        <v>561</v>
       </c>
       <c r="U32" s="28" t="s">
         <v>64</v>
@@ -9617,42 +10346,52 @@
         <v>156</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="33" t="s">
         <v>267</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+        <v>562</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J33" s="34">
+        <v>2.7546296296296294E-3</v>
+      </c>
       <c r="K33" s="13">
         <v>43061</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M33" s="32">
         <v>43159</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O33" s="32">
         <v>43389</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R33" s="29" t="s">
         <v>195</v>
@@ -9661,7 +10400,7 @@
         <v>194</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U33" s="28" t="s">
         <v>65</v>
@@ -9672,42 +10411,52 @@
         <v>157</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="33" t="s">
         <v>268</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J34" s="34">
+        <v>2.627314814814815E-3</v>
+      </c>
       <c r="K34" s="13">
         <v>43061</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M34" s="32">
         <v>43159</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O34" s="32">
         <v>43389</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q34" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>195</v>
@@ -9716,7 +10465,7 @@
         <v>194</v>
       </c>
       <c r="T34" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U34" s="28" t="s">
         <v>66</v>
@@ -9727,42 +10476,52 @@
         <v>158</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="33" t="s">
         <v>269</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J35" s="34">
+        <v>2.7430555555555559E-3</v>
+      </c>
       <c r="K35" s="13">
         <v>43067</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M35" s="32">
         <v>43159</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O35" s="32">
         <v>43389</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R35" s="29" t="s">
         <v>195</v>
@@ -9771,7 +10530,7 @@
         <v>194</v>
       </c>
       <c r="T35" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U35" s="28" t="s">
         <v>67</v>
@@ -9782,42 +10541,52 @@
         <v>159</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="33" t="s">
         <v>270</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J36" s="34">
+        <v>2.2106481481481478E-3</v>
+      </c>
       <c r="K36" s="13">
         <v>43096</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M36" s="32">
         <v>43159</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O36" s="32">
         <v>43389</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q36" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R36" s="29" t="s">
         <v>195</v>
@@ -9826,7 +10595,7 @@
         <v>194</v>
       </c>
       <c r="T36" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U36" s="28" t="s">
         <v>68</v>
@@ -9837,42 +10606,52 @@
         <v>160</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="33" t="s">
         <v>271</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J37" s="34">
+        <v>3.7037037037037035E-4</v>
+      </c>
       <c r="K37" s="13">
         <v>43096</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M37" s="32">
         <v>43159</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O37" s="32">
         <v>43389</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q37" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R37" s="29" t="s">
         <v>195</v>
@@ -9881,7 +10660,7 @@
         <v>194</v>
       </c>
       <c r="T37" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U37" s="28" t="s">
         <v>69</v>
@@ -9892,42 +10671,52 @@
         <v>161</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="33" t="s">
         <v>272</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J38" s="34">
+        <v>1.736111111111111E-3</v>
+      </c>
       <c r="K38" s="13">
         <v>43096</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M38" s="32">
         <v>43159</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O38" s="32">
         <v>43389</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q38" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R38" s="29" t="s">
         <v>195</v>
@@ -9936,7 +10725,7 @@
         <v>194</v>
       </c>
       <c r="T38" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U38" s="28" t="s">
         <v>70</v>
@@ -9947,42 +10736,52 @@
         <v>162</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="33" t="s">
         <v>273</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J39" s="34">
+        <v>2.3148148148148151E-3</v>
+      </c>
       <c r="K39" s="13">
         <v>43097</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M39" s="32">
         <v>43159</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O39" s="32">
         <v>43389</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q39" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R39" s="29" t="s">
         <v>195</v>
@@ -9991,7 +10790,7 @@
         <v>194</v>
       </c>
       <c r="T39" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U39" s="28" t="s">
         <v>71</v>
@@ -10002,42 +10801,52 @@
         <v>163</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="33" t="s">
         <v>274</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J40" s="34">
+        <v>2.2800925925925927E-3</v>
+      </c>
       <c r="K40" s="13">
         <v>43100</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M40" s="32">
         <v>43159</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O40" s="32">
         <v>43389</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q40" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R40" s="29" t="s">
         <v>195</v>
@@ -10046,7 +10855,7 @@
         <v>194</v>
       </c>
       <c r="T40" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U40" s="28" t="s">
         <v>72</v>
@@ -10057,42 +10866,52 @@
         <v>164</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="33" t="s">
         <v>275</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J41" s="34">
+        <v>3.2175925925925926E-3</v>
+      </c>
       <c r="K41" s="13">
         <v>43100</v>
       </c>
-      <c r="L41" s="17" t="s">
+      <c r="L41" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M41" s="32">
         <v>43159</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O41" s="32">
         <v>43389</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R41" s="29" t="s">
         <v>195</v>
@@ -10101,7 +10920,7 @@
         <v>194</v>
       </c>
       <c r="T41" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U41" s="28" t="s">
         <v>73</v>
@@ -10112,42 +10931,52 @@
         <v>165</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="33" t="s">
         <v>276</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J42" s="34">
+        <v>2.2222222222222222E-3</v>
+      </c>
       <c r="K42" s="13">
         <v>43100</v>
       </c>
-      <c r="L42" s="17" t="s">
+      <c r="L42" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M42" s="32">
         <v>43159</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O42" s="32">
         <v>43389</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q42" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R42" s="29" t="s">
         <v>195</v>
@@ -10156,7 +10985,7 @@
         <v>194</v>
       </c>
       <c r="T42" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U42" s="28" t="s">
         <v>74</v>
@@ -10167,42 +10996,52 @@
         <v>166</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="33" t="s">
         <v>277</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J43" s="34">
+        <v>2.2337962962962967E-3</v>
+      </c>
       <c r="K43" s="13">
         <v>43100</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M43" s="32">
         <v>43159</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O43" s="32">
         <v>43389</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q43" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R43" s="29" t="s">
         <v>195</v>
@@ -10211,7 +11050,7 @@
         <v>194</v>
       </c>
       <c r="T43" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U43" s="28" t="s">
         <v>75</v>
@@ -10222,42 +11061,52 @@
         <v>167</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="33" t="s">
         <v>278</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J44" s="34">
+        <v>2.2453703703703702E-3</v>
+      </c>
       <c r="K44" s="13">
         <v>43100</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M44" s="32">
         <v>43159</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O44" s="32">
         <v>43389</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R44" s="29" t="s">
         <v>195</v>
@@ -10266,7 +11115,7 @@
         <v>194</v>
       </c>
       <c r="T44" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U44" s="28" t="s">
         <v>76</v>
@@ -10277,42 +11126,52 @@
         <v>168</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="33" t="s">
         <v>279</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J45" s="34">
+        <v>2.2453703703703702E-3</v>
+      </c>
       <c r="K45" s="13">
         <v>43100</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M45" s="32">
         <v>43159</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O45" s="32">
         <v>43389</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q45" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R45" s="29" t="s">
         <v>195</v>
@@ -10321,7 +11180,7 @@
         <v>194</v>
       </c>
       <c r="T45" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U45" s="28" t="s">
         <v>77</v>
@@ -10332,42 +11191,52 @@
         <v>169</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="33" t="s">
         <v>280</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J46" s="34">
+        <v>2.4652777777777776E-3</v>
+      </c>
       <c r="K46" s="13">
         <v>43100</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M46" s="32">
         <v>43159</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O46" s="32">
         <v>43389</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q46" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R46" s="29" t="s">
         <v>195</v>
@@ -10376,7 +11245,7 @@
         <v>194</v>
       </c>
       <c r="T46" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U46" s="28" t="s">
         <v>78</v>
@@ -10387,42 +11256,52 @@
         <v>170</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="33" t="s">
         <v>281</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+        <v>567</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J47" s="34">
+        <v>3.1481481481481482E-3</v>
+      </c>
       <c r="K47" s="13">
         <v>43111</v>
       </c>
-      <c r="L47" s="17" t="s">
+      <c r="L47" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M47" s="32">
         <v>43159</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O47" s="32">
         <v>43389</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q47" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R47" s="29" t="s">
         <v>195</v>
@@ -10431,7 +11310,7 @@
         <v>194</v>
       </c>
       <c r="T47" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U47" s="28" t="s">
         <v>79</v>
@@ -10442,42 +11321,52 @@
         <v>171</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="33" t="s">
         <v>282</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J48" s="34">
+        <v>1.1921296296296296E-3</v>
+      </c>
       <c r="K48" s="13">
         <v>43132</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M48" s="32">
         <v>43159</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O48" s="32">
         <v>43389</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R48" s="29" t="s">
         <v>195</v>
@@ -10486,7 +11375,7 @@
         <v>194</v>
       </c>
       <c r="T48" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U48" s="28" t="s">
         <v>80</v>
@@ -10497,42 +11386,52 @@
         <v>172</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="33" t="s">
         <v>283</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J49" s="34">
+        <v>1.9560185185185184E-3</v>
+      </c>
       <c r="K49" s="13">
         <v>43133</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="L49" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M49" s="32">
         <v>43159</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="O49" s="32">
         <v>43389</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="Q49" s="26" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="R49" s="29" t="s">
         <v>195</v>
@@ -10541,7 +11440,7 @@
         <v>194</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="U49" s="28" t="s">
         <v>81</v>
@@ -10552,42 +11451,49 @@
         <v>174</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>243</v>
+      <c r="D50" s="14" t="s">
+        <v>568</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+        <v>569</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>508</v>
+      </c>
       <c r="K50" s="13">
         <v>43292</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M50" s="32">
         <v>43159</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O50" s="32">
         <v>43389</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q50" s="26" t="s">
-        <v>388</v>
+        <v>539</v>
       </c>
       <c r="R50" s="29" t="s">
         <v>195</v>
@@ -10605,42 +11511,49 @@
         <v>175</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>244</v>
+      <c r="D51" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+        <v>544</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>510</v>
+      </c>
       <c r="K51" s="13">
         <v>43292</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="14" t="s">
         <v>231</v>
       </c>
       <c r="M51" s="32">
         <v>43159</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="O51" s="32">
         <v>43389</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="Q51" s="26" t="s">
-        <v>388</v>
+        <v>539</v>
       </c>
       <c r="R51" s="29" t="s">
         <v>195</v>
@@ -10654,25 +11567,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U51">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-    <filterColumn colId="11"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="14"/>
-    <filterColumn colId="15"/>
-    <filterColumn colId="16"/>
-    <filterColumn colId="17"/>
-    <filterColumn colId="18"/>
-    <filterColumn colId="19"/>
-    <filterColumn colId="20"/>
+  <autoFilter ref="A1:U1">
+    <sortState ref="A2:U51">
+      <sortCondition ref="B1"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
